--- a/testdata/PINT_references_ex.xlsx
+++ b/testdata/PINT_references_ex.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trin\Documents\Pmag_research\notebooks\DOI_MagIC_search\DOI_MagIC_link_search\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A902CC-615C-43FD-BF13-4EC6162FABED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3781,7 +3787,7 @@
     <t>e2019JB018631</t>
   </si>
   <si>
-    <t xml:space="preserve">10743 </t>
+    <t>10743 </t>
   </si>
   <si>
     <t>e2020JB020834</t>
@@ -4024,7 +4030,7 @@
     <t>10.1016/0031-9201(68)90035-6</t>
   </si>
   <si>
-    <t>10.1029/te043i003p00299</t>
+    <t>10.1029/te043i002p00119</t>
   </si>
   <si>
     <t>10.5636/jgg.20.211</t>
@@ -5695,8 +5701,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5772,6 +5778,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5818,7 +5832,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5850,9 +5864,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5884,6 +5916,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6059,14 +6109,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6101,7 +6151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6130,7 +6180,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6152,14 +6202,8 @@
       <c r="G3" t="s">
         <v>877</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6181,14 +6225,8 @@
       <c r="G4" t="s">
         <v>878</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6217,7 +6255,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6239,14 +6277,8 @@
       <c r="G6" t="s">
         <v>880</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6268,14 +6300,8 @@
       <c r="G7" t="s">
         <v>881</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6297,14 +6323,8 @@
       <c r="G8" t="s">
         <v>882</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6326,14 +6346,8 @@
       <c r="G9" t="s">
         <v>883</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6358,11 +6372,8 @@
       <c r="J10" t="s">
         <v>1317</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6384,14 +6395,8 @@
       <c r="G11" t="s">
         <v>885</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6413,14 +6418,8 @@
       <c r="G12" t="s">
         <v>886</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6442,14 +6441,8 @@
       <c r="G13" t="s">
         <v>887</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6471,14 +6464,8 @@
       <c r="G14" t="s">
         <v>888</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6500,14 +6487,8 @@
       <c r="G15" t="s">
         <v>889</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6529,14 +6510,8 @@
       <c r="G16" t="s">
         <v>890</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6558,14 +6533,8 @@
       <c r="G17" t="s">
         <v>891</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6587,14 +6556,8 @@
       <c r="G18" t="s">
         <v>892</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6623,7 +6586,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6648,11 +6611,8 @@
       <c r="J20" t="s">
         <v>1319</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6674,14 +6634,8 @@
       <c r="G21" t="s">
         <v>895</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6703,14 +6657,8 @@
       <c r="G22" t="s">
         <v>896</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6732,14 +6680,8 @@
       <c r="G23" t="s">
         <v>897</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6768,7 +6710,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6797,7 +6739,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6826,7 +6768,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6855,7 +6797,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6884,7 +6826,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6913,7 +6855,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6942,7 +6884,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6971,7 +6913,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7000,7 +6942,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7029,7 +6971,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7058,7 +7000,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7087,7 +7029,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7116,7 +7058,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7141,11 +7083,8 @@
       <c r="J37" t="s">
         <v>1333</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7174,7 +7113,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7203,7 +7142,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7225,14 +7164,8 @@
       <c r="G40" t="s">
         <v>914</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7254,14 +7187,8 @@
       <c r="G41" t="s">
         <v>915</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7290,7 +7217,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7319,7 +7246,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7348,7 +7275,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7377,7 +7304,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7406,7 +7333,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7435,7 +7362,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7464,7 +7391,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7489,11 +7416,8 @@
       <c r="J49" t="s">
         <v>1343</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7522,7 +7446,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7544,14 +7468,8 @@
       <c r="G51" t="s">
         <v>925</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7573,14 +7491,8 @@
       <c r="G52" t="s">
         <v>926</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7602,14 +7514,8 @@
       <c r="G53" t="s">
         <v>927</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7638,7 +7544,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7663,11 +7569,8 @@
       <c r="J55" t="s">
         <v>1346</v>
       </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7696,7 +7599,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7725,7 +7628,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7747,14 +7650,8 @@
       <c r="G58" t="s">
         <v>932</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7776,14 +7673,8 @@
       <c r="G59" t="s">
         <v>933</v>
       </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7805,14 +7696,8 @@
       <c r="G60" t="s">
         <v>934</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7841,7 +7726,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7870,7 +7755,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7899,7 +7784,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7928,7 +7813,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7957,7 +7842,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7986,7 +7871,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8015,7 +7900,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8044,7 +7929,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8066,14 +7951,8 @@
       <c r="G69" t="s">
         <v>943</v>
       </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8102,7 +7981,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8131,7 +8010,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8156,11 +8035,8 @@
       <c r="J72" t="s">
         <v>1359</v>
       </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8189,7 +8065,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8211,14 +8087,8 @@
       <c r="G74" t="s">
         <v>948</v>
       </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8247,7 +8117,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8269,14 +8139,8 @@
       <c r="G76" t="s">
         <v>950</v>
       </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8298,14 +8162,8 @@
       <c r="G77" t="s">
         <v>951</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8334,7 +8192,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8359,11 +8217,8 @@
       <c r="J79" t="s">
         <v>1363</v>
       </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8392,7 +8247,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8414,14 +8269,8 @@
       <c r="G81" t="s">
         <v>955</v>
       </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8450,7 +8299,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8479,7 +8328,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8508,7 +8357,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8530,14 +8379,8 @@
       <c r="G85" t="s">
         <v>959</v>
       </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8559,14 +8402,8 @@
       <c r="G86" t="s">
         <v>960</v>
       </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8588,14 +8425,8 @@
       <c r="G87" t="s">
         <v>961</v>
       </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8617,14 +8448,8 @@
       <c r="G88" t="s">
         <v>962</v>
       </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8653,7 +8478,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -8682,7 +8507,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8711,7 +8536,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8740,7 +8565,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8769,7 +8594,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8798,7 +8623,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8827,7 +8652,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8856,7 +8681,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8885,7 +8710,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8914,7 +8739,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8943,7 +8768,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8972,7 +8797,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8994,14 +8819,8 @@
       <c r="G101" t="s">
         <v>975</v>
       </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -9030,7 +8849,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9059,7 +8878,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>104</v>
       </c>
@@ -9088,7 +8907,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>105</v>
       </c>
@@ -9117,7 +8936,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>106</v>
       </c>
@@ -9142,11 +8961,8 @@
       <c r="J106" t="s">
         <v>1384</v>
       </c>
-      <c r="K106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>107</v>
       </c>
@@ -9175,7 +8991,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>108</v>
       </c>
@@ -9204,7 +9020,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>109</v>
       </c>
@@ -9233,7 +9049,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>110</v>
       </c>
@@ -9262,7 +9078,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>111</v>
       </c>
@@ -9291,7 +9107,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>112</v>
       </c>
@@ -9320,7 +9136,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>113</v>
       </c>
@@ -9349,7 +9165,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>114</v>
       </c>
@@ -9371,14 +9187,8 @@
       <c r="G114" t="s">
         <v>988</v>
       </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-      <c r="K114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>115</v>
       </c>
@@ -9407,7 +9217,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>116</v>
       </c>
@@ -9436,7 +9246,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>117</v>
       </c>
@@ -9461,11 +9271,8 @@
       <c r="J117" t="s">
         <v>1394</v>
       </c>
-      <c r="K117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>118</v>
       </c>
@@ -9490,11 +9297,8 @@
       <c r="J118" t="s">
         <v>1395</v>
       </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>119</v>
       </c>
@@ -9523,7 +9327,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>120</v>
       </c>
@@ -9552,7 +9356,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>121</v>
       </c>
@@ -9581,7 +9385,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>122</v>
       </c>
@@ -9610,7 +9414,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>123</v>
       </c>
@@ -9639,7 +9443,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>124</v>
       </c>
@@ -9664,11 +9468,8 @@
       <c r="J124" t="s">
         <v>1401</v>
       </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>125</v>
       </c>
@@ -9693,11 +9494,8 @@
       <c r="J125" t="s">
         <v>1402</v>
       </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>126</v>
       </c>
@@ -9719,14 +9517,8 @@
       <c r="G126" t="s">
         <v>1000</v>
       </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>127</v>
       </c>
@@ -9755,7 +9547,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>128</v>
       </c>
@@ -9780,11 +9572,8 @@
       <c r="J128" t="s">
         <v>1404</v>
       </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>129</v>
       </c>
@@ -9813,7 +9602,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>130</v>
       </c>
@@ -9835,14 +9624,8 @@
       <c r="G130" t="s">
         <v>1004</v>
       </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>131</v>
       </c>
@@ -9871,7 +9654,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>132</v>
       </c>
@@ -9900,7 +9683,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>133</v>
       </c>
@@ -9925,11 +9708,8 @@
       <c r="J133" t="s">
         <v>1408</v>
       </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>134</v>
       </c>
@@ -9958,7 +9738,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>135</v>
       </c>
@@ -9987,7 +9767,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>136</v>
       </c>
@@ -10016,7 +9796,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>137</v>
       </c>
@@ -10041,11 +9821,8 @@
       <c r="J137" t="s">
         <v>1412</v>
       </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>138</v>
       </c>
@@ -10067,14 +9844,8 @@
       <c r="G138" t="s">
         <v>1012</v>
       </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>139</v>
       </c>
@@ -10103,7 +9874,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>140</v>
       </c>
@@ -10125,14 +9896,8 @@
       <c r="G140" t="s">
         <v>1014</v>
       </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>141</v>
       </c>
@@ -10161,7 +9926,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>142</v>
       </c>
@@ -10190,7 +9955,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>143</v>
       </c>
@@ -10219,7 +9984,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>144</v>
       </c>
@@ -10248,7 +10013,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>145</v>
       </c>
@@ -10277,7 +10042,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>146</v>
       </c>
@@ -10306,7 +10071,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>147</v>
       </c>
@@ -10335,7 +10100,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>148</v>
       </c>
@@ -10357,14 +10122,8 @@
       <c r="G148" t="s">
         <v>1022</v>
       </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>149</v>
       </c>
@@ -10389,11 +10148,8 @@
       <c r="J149" t="s">
         <v>1421</v>
       </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>150</v>
       </c>
@@ -10422,7 +10178,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>151</v>
       </c>
@@ -10451,7 +10207,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>152</v>
       </c>
@@ -10480,7 +10236,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>153</v>
       </c>
@@ -10502,14 +10258,8 @@
       <c r="G153" t="s">
         <v>1027</v>
       </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>154</v>
       </c>
@@ -10531,14 +10281,8 @@
       <c r="G154" t="s">
         <v>1028</v>
       </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
-      <c r="K154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>155</v>
       </c>
@@ -10567,7 +10311,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>156</v>
       </c>
@@ -10596,7 +10340,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>157</v>
       </c>
@@ -10625,7 +10369,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>158</v>
       </c>
@@ -10654,7 +10398,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>159</v>
       </c>
@@ -10683,7 +10427,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>160</v>
       </c>
@@ -10705,14 +10449,8 @@
       <c r="G160" t="s">
         <v>1034</v>
       </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>161</v>
       </c>
@@ -10741,7 +10479,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>162</v>
       </c>
@@ -10770,7 +10508,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>163</v>
       </c>
@@ -10795,11 +10533,8 @@
       <c r="J163" t="s">
         <v>1432</v>
       </c>
-      <c r="K163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>164</v>
       </c>
@@ -10821,14 +10556,8 @@
       <c r="G164" t="s">
         <v>1038</v>
       </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-      <c r="K164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>165</v>
       </c>
@@ -10857,7 +10586,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>166</v>
       </c>
@@ -10882,11 +10611,8 @@
       <c r="J166" t="s">
         <v>1434</v>
       </c>
-      <c r="K166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>186</v>
       </c>
@@ -10911,11 +10637,8 @@
       <c r="J167" t="s">
         <v>1435</v>
       </c>
-      <c r="K167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>187</v>
       </c>
@@ -10940,11 +10663,8 @@
       <c r="J168" t="s">
         <v>1436</v>
       </c>
-      <c r="K168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -10973,7 +10693,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -11002,7 +10722,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>171</v>
       </c>
@@ -11024,14 +10744,8 @@
       <c r="G171" t="s">
         <v>1045</v>
       </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>172</v>
       </c>
@@ -11053,14 +10767,8 @@
       <c r="G172" t="s">
         <v>1046</v>
       </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>173</v>
       </c>
@@ -11089,7 +10797,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>174</v>
       </c>
@@ -11118,7 +10826,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>175</v>
       </c>
@@ -11147,7 +10855,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>176</v>
       </c>
@@ -11176,7 +10884,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>177</v>
       </c>
@@ -11198,14 +10906,8 @@
       <c r="G177" t="s">
         <v>1051</v>
       </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-      <c r="K177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>179</v>
       </c>
@@ -11234,7 +10936,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>180</v>
       </c>
@@ -11256,14 +10958,8 @@
       <c r="G179" t="s">
         <v>1053</v>
       </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="K179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>181</v>
       </c>
@@ -11292,7 +10988,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>182</v>
       </c>
@@ -11321,7 +11017,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>183</v>
       </c>
@@ -11350,7 +11046,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>184</v>
       </c>
@@ -11379,7 +11075,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>185</v>
       </c>
@@ -11404,11 +11100,8 @@
       <c r="J184" t="s">
         <v>1448</v>
       </c>
-      <c r="K184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>169</v>
       </c>
@@ -11437,7 +11130,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>170</v>
       </c>
@@ -11462,11 +11155,8 @@
       <c r="J186" t="s">
         <v>1450</v>
       </c>
-      <c r="K186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>188</v>
       </c>
@@ -11495,7 +11185,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>189</v>
       </c>
@@ -11520,11 +11210,8 @@
       <c r="J188" t="s">
         <v>1452</v>
       </c>
-      <c r="K188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>190</v>
       </c>
@@ -11546,14 +11233,8 @@
       <c r="G189" t="s">
         <v>1063</v>
       </c>
-      <c r="J189">
-        <v>0</v>
-      </c>
-      <c r="K189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>191</v>
       </c>
@@ -11582,7 +11263,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>192</v>
       </c>
@@ -11611,7 +11292,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>193</v>
       </c>
@@ -11636,11 +11317,8 @@
       <c r="J192" t="s">
         <v>1455</v>
       </c>
-      <c r="K192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>195</v>
       </c>
@@ -11669,7 +11347,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>196</v>
       </c>
@@ -11698,7 +11376,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11727,7 +11405,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>197</v>
       </c>
@@ -11756,7 +11434,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>198</v>
       </c>
@@ -11785,7 +11463,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>199</v>
       </c>
@@ -11814,7 +11492,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>200</v>
       </c>
@@ -11843,7 +11521,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>201</v>
       </c>
@@ -11868,11 +11546,8 @@
       <c r="J200" t="s">
         <v>1463</v>
       </c>
-      <c r="K200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>202</v>
       </c>
@@ -11901,7 +11576,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>203</v>
       </c>
@@ -11930,7 +11605,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>204</v>
       </c>
@@ -11959,7 +11634,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>205</v>
       </c>
@@ -11988,7 +11663,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>206</v>
       </c>
@@ -12017,7 +11692,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>207</v>
       </c>
@@ -12042,11 +11717,8 @@
       <c r="J206" t="s">
         <v>1469</v>
       </c>
-      <c r="K206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>208</v>
       </c>
@@ -12075,7 +11747,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>209</v>
       </c>
@@ -12100,11 +11772,8 @@
       <c r="J208" t="s">
         <v>1471</v>
       </c>
-      <c r="K208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>210</v>
       </c>
@@ -12133,7 +11802,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>211</v>
       </c>
@@ -12162,7 +11831,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>212</v>
       </c>
@@ -12187,11 +11856,8 @@
       <c r="J211" t="s">
         <v>1474</v>
       </c>
-      <c r="K211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11">
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>213</v>
       </c>
@@ -12220,7 +11886,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>638</v>
       </c>
@@ -12245,11 +11911,8 @@
       <c r="J213" t="s">
         <v>1476</v>
       </c>
-      <c r="K213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11">
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>215</v>
       </c>
@@ -12268,14 +11931,8 @@
       <c r="G214" t="s">
         <v>1088</v>
       </c>
-      <c r="J214">
-        <v>0</v>
-      </c>
-      <c r="K214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11">
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>500</v>
       </c>
@@ -12304,7 +11961,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>501</v>
       </c>
@@ -12329,11 +11986,8 @@
       <c r="J216" t="s">
         <v>1478</v>
       </c>
-      <c r="K216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11">
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>502</v>
       </c>
@@ -12362,7 +12016,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>503</v>
       </c>
@@ -12391,7 +12045,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>504</v>
       </c>
@@ -12420,7 +12074,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>505</v>
       </c>
@@ -12449,7 +12103,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>506</v>
       </c>
@@ -12478,7 +12132,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>507</v>
       </c>
@@ -12507,7 +12161,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>508</v>
       </c>
@@ -12536,7 +12190,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>509</v>
       </c>
@@ -12565,7 +12219,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>510</v>
       </c>
@@ -12594,7 +12248,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>511</v>
       </c>
@@ -12619,11 +12273,8 @@
       <c r="J226" t="s">
         <v>1488</v>
       </c>
-      <c r="K226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11">
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>512</v>
       </c>
@@ -12652,7 +12303,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>513</v>
       </c>
@@ -12681,7 +12332,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>514</v>
       </c>
@@ -12710,7 +12361,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>515</v>
       </c>
@@ -12739,7 +12390,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>516</v>
       </c>
@@ -12768,7 +12419,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>517</v>
       </c>
@@ -12793,11 +12444,8 @@
       <c r="J232" t="s">
         <v>1494</v>
       </c>
-      <c r="K232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11">
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>518</v>
       </c>
@@ -12822,11 +12470,8 @@
       <c r="J233" t="s">
         <v>1495</v>
       </c>
-      <c r="K233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11">
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>600</v>
       </c>
@@ -12855,7 +12500,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>693</v>
       </c>
@@ -12884,7 +12529,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>602</v>
       </c>
@@ -12909,11 +12554,8 @@
       <c r="J236" t="s">
         <v>1498</v>
       </c>
-      <c r="K236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11">
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>603</v>
       </c>
@@ -12942,7 +12584,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>604</v>
       </c>
@@ -12967,11 +12609,8 @@
       <c r="J238" t="s">
         <v>1500</v>
       </c>
-      <c r="K238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11">
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>605</v>
       </c>
@@ -13000,7 +12639,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>606</v>
       </c>
@@ -13029,7 +12668,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>607</v>
       </c>
@@ -13058,7 +12697,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>608</v>
       </c>
@@ -13087,7 +12726,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>609</v>
       </c>
@@ -13116,7 +12755,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>610</v>
       </c>
@@ -13141,11 +12780,8 @@
       <c r="J244" t="s">
         <v>1506</v>
       </c>
-      <c r="K244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11">
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>611</v>
       </c>
@@ -13174,7 +12810,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>612</v>
       </c>
@@ -13199,11 +12835,8 @@
       <c r="J246" t="s">
         <v>1508</v>
       </c>
-      <c r="K246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11">
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>613</v>
       </c>
@@ -13232,7 +12865,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>214</v>
       </c>
@@ -13261,7 +12894,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>601</v>
       </c>
@@ -13290,7 +12923,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>614</v>
       </c>
@@ -13315,11 +12948,8 @@
       <c r="J250" t="s">
         <v>1512</v>
       </c>
-      <c r="K250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11">
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>615</v>
       </c>
@@ -13344,11 +12974,8 @@
       <c r="J251" t="s">
         <v>1513</v>
       </c>
-      <c r="K251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11">
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>618</v>
       </c>
@@ -13373,11 +13000,8 @@
       <c r="J252" t="s">
         <v>1514</v>
       </c>
-      <c r="K252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11">
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>619</v>
       </c>
@@ -13406,7 +13030,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>620</v>
       </c>
@@ -13435,7 +13059,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>621</v>
       </c>
@@ -13464,7 +13088,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>622</v>
       </c>
@@ -13493,7 +13117,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>623</v>
       </c>
@@ -13518,11 +13142,8 @@
       <c r="J257" t="s">
         <v>1519</v>
       </c>
-      <c r="K257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11">
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>624</v>
       </c>
@@ -13551,7 +13172,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>625</v>
       </c>
@@ -13580,7 +13201,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>626</v>
       </c>
@@ -13609,7 +13230,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>627</v>
       </c>
@@ -13634,11 +13255,8 @@
       <c r="J261" t="s">
         <v>1523</v>
       </c>
-      <c r="K261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11">
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>628</v>
       </c>
@@ -13667,7 +13285,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>630</v>
       </c>
@@ -13689,14 +13307,8 @@
       <c r="G263" t="s">
         <v>1134</v>
       </c>
-      <c r="J263">
-        <v>0</v>
-      </c>
-      <c r="K263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11">
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>631</v>
       </c>
@@ -13718,14 +13330,8 @@
       <c r="G264" t="s">
         <v>1135</v>
       </c>
-      <c r="J264">
-        <v>0</v>
-      </c>
-      <c r="K264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11">
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>632</v>
       </c>
@@ -13754,7 +13360,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>633</v>
       </c>
@@ -13783,7 +13389,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>634</v>
       </c>
@@ -13805,14 +13411,8 @@
       <c r="G267" t="s">
         <v>1138</v>
       </c>
-      <c r="J267">
-        <v>0</v>
-      </c>
-      <c r="K267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11">
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>635</v>
       </c>
@@ -13841,7 +13441,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>636</v>
       </c>
@@ -13870,7 +13470,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>637</v>
       </c>
@@ -13899,7 +13499,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>616</v>
       </c>
@@ -13928,7 +13528,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>639</v>
       </c>
@@ -13957,7 +13557,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>640</v>
       </c>
@@ -13986,7 +13586,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>641</v>
       </c>
@@ -14011,11 +13611,8 @@
       <c r="J274" t="s">
         <v>1533</v>
       </c>
-      <c r="K274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11">
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>642</v>
       </c>
@@ -14044,7 +13641,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>643</v>
       </c>
@@ -14073,7 +13670,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>644</v>
       </c>
@@ -14098,11 +13695,8 @@
       <c r="J277" t="s">
         <v>1536</v>
       </c>
-      <c r="K277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11">
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>645</v>
       </c>
@@ -14131,7 +13725,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>646</v>
       </c>
@@ -14160,7 +13754,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>648</v>
       </c>
@@ -14185,11 +13779,8 @@
       <c r="J280" t="s">
         <v>1539</v>
       </c>
-      <c r="K280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11">
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>617</v>
       </c>
@@ -14214,11 +13805,8 @@
       <c r="J281" t="s">
         <v>1540</v>
       </c>
-      <c r="K281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11">
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>650</v>
       </c>
@@ -14247,7 +13835,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>651</v>
       </c>
@@ -14272,11 +13860,8 @@
       <c r="J283" t="s">
         <v>1542</v>
       </c>
-      <c r="K283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11">
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>655</v>
       </c>
@@ -14305,7 +13890,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>649</v>
       </c>
@@ -14330,11 +13915,8 @@
       <c r="J285" t="s">
         <v>1544</v>
       </c>
-      <c r="K285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11">
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>654</v>
       </c>
@@ -14359,11 +13941,8 @@
       <c r="J286" t="s">
         <v>1545</v>
       </c>
-      <c r="K286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11">
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>652</v>
       </c>
@@ -14392,7 +13971,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>656</v>
       </c>
@@ -14417,11 +13996,8 @@
       <c r="J288" t="s">
         <v>1547</v>
       </c>
-      <c r="K288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11">
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>657</v>
       </c>
@@ -14450,7 +14026,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>658</v>
       </c>
@@ -14475,11 +14051,8 @@
       <c r="J290" t="s">
         <v>1549</v>
       </c>
-      <c r="K290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11">
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>659</v>
       </c>
@@ -14504,11 +14077,8 @@
       <c r="J291" t="s">
         <v>1550</v>
       </c>
-      <c r="K291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11">
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>660</v>
       </c>
@@ -14533,11 +14103,8 @@
       <c r="J292" t="s">
         <v>1551</v>
       </c>
-      <c r="K292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11">
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>653</v>
       </c>
@@ -14566,7 +14133,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>662</v>
       </c>
@@ -14591,11 +14158,8 @@
       <c r="J294" t="s">
         <v>1553</v>
       </c>
-      <c r="K294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11">
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>663</v>
       </c>
@@ -14620,11 +14184,8 @@
       <c r="J295" t="s">
         <v>1554</v>
       </c>
-      <c r="K295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11">
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>664</v>
       </c>
@@ -14653,7 +14214,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>665</v>
       </c>
@@ -14678,11 +14239,8 @@
       <c r="J297" t="s">
         <v>1556</v>
       </c>
-      <c r="K297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11">
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>666</v>
       </c>
@@ -14707,11 +14265,8 @@
       <c r="J298" t="s">
         <v>1557</v>
       </c>
-      <c r="K298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11">
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>667</v>
       </c>
@@ -14736,11 +14291,8 @@
       <c r="J299" t="s">
         <v>1558</v>
       </c>
-      <c r="K299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11">
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>668</v>
       </c>
@@ -14765,11 +14317,8 @@
       <c r="J300" t="s">
         <v>1559</v>
       </c>
-      <c r="K300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11">
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>669</v>
       </c>
@@ -14794,11 +14343,8 @@
       <c r="J301" t="s">
         <v>1560</v>
       </c>
-      <c r="K301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11">
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>670</v>
       </c>
@@ -14827,7 +14373,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>671</v>
       </c>
@@ -14852,11 +14398,8 @@
       <c r="J303" t="s">
         <v>1562</v>
       </c>
-      <c r="K303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11">
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>672</v>
       </c>
@@ -14881,11 +14424,8 @@
       <c r="J304" t="s">
         <v>1563</v>
       </c>
-      <c r="K304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11">
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>673</v>
       </c>
@@ -14910,11 +14450,8 @@
       <c r="J305" t="s">
         <v>1564</v>
       </c>
-      <c r="K305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11">
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>674</v>
       </c>
@@ -14939,11 +14476,8 @@
       <c r="J306" t="s">
         <v>1565</v>
       </c>
-      <c r="K306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11">
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>675</v>
       </c>
@@ -14968,11 +14502,8 @@
       <c r="J307" t="s">
         <v>1566</v>
       </c>
-      <c r="K307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11">
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>661</v>
       </c>
@@ -14997,11 +14528,8 @@
       <c r="J308" t="s">
         <v>1567</v>
       </c>
-      <c r="K308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11">
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>676</v>
       </c>
@@ -15030,7 +14558,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>678</v>
       </c>
@@ -15055,11 +14583,8 @@
       <c r="J310" t="s">
         <v>1569</v>
       </c>
-      <c r="K310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11">
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>679</v>
       </c>
@@ -15084,11 +14609,8 @@
       <c r="J311" t="s">
         <v>1570</v>
       </c>
-      <c r="K311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11">
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>680</v>
       </c>
@@ -15117,7 +14639,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>681</v>
       </c>
@@ -15142,11 +14664,8 @@
       <c r="J313" t="s">
         <v>1572</v>
       </c>
-      <c r="K313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11">
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>682</v>
       </c>
@@ -15175,7 +14694,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>683</v>
       </c>
@@ -15200,11 +14719,8 @@
       <c r="J315" t="s">
         <v>1574</v>
       </c>
-      <c r="K315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11">
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>677</v>
       </c>
@@ -15229,11 +14745,8 @@
       <c r="J316" t="s">
         <v>1575</v>
       </c>
-      <c r="K316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11">
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>685</v>
       </c>
@@ -15262,7 +14775,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>686</v>
       </c>
@@ -15287,11 +14800,8 @@
       <c r="J318" t="s">
         <v>1577</v>
       </c>
-      <c r="K318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11">
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>687</v>
       </c>
@@ -15316,11 +14826,8 @@
       <c r="J319" t="s">
         <v>1578</v>
       </c>
-      <c r="K319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11">
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>688</v>
       </c>
@@ -15345,11 +14852,8 @@
       <c r="J320" t="s">
         <v>1579</v>
       </c>
-      <c r="K320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11">
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>689</v>
       </c>
@@ -15374,11 +14878,8 @@
       <c r="J321" t="s">
         <v>1580</v>
       </c>
-      <c r="K321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11">
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>690</v>
       </c>
@@ -15403,11 +14904,8 @@
       <c r="J322" t="s">
         <v>1581</v>
       </c>
-      <c r="K322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11">
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>691</v>
       </c>
@@ -15432,11 +14930,8 @@
       <c r="J323" t="s">
         <v>1582</v>
       </c>
-      <c r="K323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11">
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>692</v>
       </c>
@@ -15465,7 +14960,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>684</v>
       </c>
@@ -15494,7 +14989,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>694</v>
       </c>
@@ -15519,11 +15014,8 @@
       <c r="J326" t="s">
         <v>1585</v>
       </c>
-      <c r="K326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11">
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>695</v>
       </c>
@@ -15548,11 +15040,8 @@
       <c r="J327" t="s">
         <v>1586</v>
       </c>
-      <c r="K327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11">
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>696</v>
       </c>
@@ -15574,14 +15063,8 @@
       <c r="G328" t="s">
         <v>1198</v>
       </c>
-      <c r="J328">
-        <v>0</v>
-      </c>
-      <c r="K328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11">
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>697</v>
       </c>
@@ -15606,11 +15089,8 @@
       <c r="J329" t="s">
         <v>1587</v>
       </c>
-      <c r="K329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11">
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>698</v>
       </c>
@@ -15635,11 +15115,8 @@
       <c r="J330" t="s">
         <v>1588</v>
       </c>
-      <c r="K330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11">
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>699</v>
       </c>
@@ -15664,11 +15141,8 @@
       <c r="J331" t="s">
         <v>1589</v>
       </c>
-      <c r="K331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11">
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>700</v>
       </c>
@@ -15693,11 +15167,8 @@
       <c r="J332" t="s">
         <v>1590</v>
       </c>
-      <c r="K332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11">
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>701</v>
       </c>
@@ -15722,11 +15193,8 @@
       <c r="J333" t="s">
         <v>1591</v>
       </c>
-      <c r="K333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11">
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>702</v>
       </c>
@@ -15751,11 +15219,8 @@
       <c r="J334" t="s">
         <v>1474</v>
       </c>
-      <c r="K334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:11">
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>703</v>
       </c>
@@ -15780,11 +15245,8 @@
       <c r="J335" t="s">
         <v>1592</v>
       </c>
-      <c r="K335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11">
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>704</v>
       </c>
@@ -15809,11 +15271,8 @@
       <c r="J336" t="s">
         <v>1593</v>
       </c>
-      <c r="K336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11">
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>705</v>
       </c>
@@ -15838,11 +15297,8 @@
       <c r="J337" t="s">
         <v>1594</v>
       </c>
-      <c r="K337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11">
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>706</v>
       </c>
@@ -15867,11 +15323,8 @@
       <c r="J338" t="s">
         <v>1595</v>
       </c>
-      <c r="K338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11">
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>707</v>
       </c>
@@ -15900,7 +15353,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>708</v>
       </c>
@@ -15925,11 +15378,8 @@
       <c r="J340" t="s">
         <v>1597</v>
       </c>
-      <c r="K340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11">
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>709</v>
       </c>
@@ -15951,14 +15401,8 @@
       <c r="G341" t="s">
         <v>1210</v>
       </c>
-      <c r="J341">
-        <v>0</v>
-      </c>
-      <c r="K341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:11">
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>710</v>
       </c>
@@ -15987,7 +15431,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>711</v>
       </c>
@@ -16012,11 +15456,8 @@
       <c r="J343" t="s">
         <v>1599</v>
       </c>
-      <c r="K343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11">
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>712</v>
       </c>
@@ -16041,11 +15482,8 @@
       <c r="J344" t="s">
         <v>1600</v>
       </c>
-      <c r="K344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11">
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>713</v>
       </c>
@@ -16070,11 +15508,8 @@
       <c r="J345" t="s">
         <v>1601</v>
       </c>
-      <c r="K345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11">
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>714</v>
       </c>
@@ -16099,11 +15534,8 @@
       <c r="J346" t="s">
         <v>1602</v>
       </c>
-      <c r="K346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11">
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>715</v>
       </c>
@@ -16128,11 +15560,8 @@
       <c r="J347" t="s">
         <v>1603</v>
       </c>
-      <c r="K347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11">
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>716</v>
       </c>
@@ -16157,11 +15586,8 @@
       <c r="J348" t="s">
         <v>1604</v>
       </c>
-      <c r="K348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11">
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>717</v>
       </c>
@@ -16186,11 +15612,8 @@
       <c r="J349" t="s">
         <v>1605</v>
       </c>
-      <c r="K349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11">
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>718</v>
       </c>
@@ -16219,7 +15642,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>719</v>
       </c>
@@ -16248,7 +15671,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>720</v>
       </c>
@@ -16273,11 +15696,8 @@
       <c r="J352" t="s">
         <v>1608</v>
       </c>
-      <c r="K352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11">
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>721</v>
       </c>
@@ -16302,11 +15722,8 @@
       <c r="J353" t="s">
         <v>1609</v>
       </c>
-      <c r="K353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11">
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>722</v>
       </c>
@@ -16331,11 +15748,8 @@
       <c r="J354" t="s">
         <v>1610</v>
       </c>
-      <c r="K354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11">
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>723</v>
       </c>
@@ -16360,11 +15774,8 @@
       <c r="J355" t="s">
         <v>1611</v>
       </c>
-      <c r="K355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11">
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>724</v>
       </c>
@@ -16389,11 +15800,8 @@
       <c r="J356" t="s">
         <v>1612</v>
       </c>
-      <c r="K356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11">
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>725</v>
       </c>
@@ -16418,11 +15826,8 @@
       <c r="J357" t="s">
         <v>1613</v>
       </c>
-      <c r="K357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11">
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>726</v>
       </c>
@@ -16447,11 +15852,8 @@
       <c r="J358" t="s">
         <v>1614</v>
       </c>
-      <c r="K358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11">
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>727</v>
       </c>
@@ -16480,7 +15882,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>728</v>
       </c>
@@ -16505,11 +15907,8 @@
       <c r="J360" t="s">
         <v>1616</v>
       </c>
-      <c r="K360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11">
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>729</v>
       </c>
@@ -16538,7 +15937,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>730</v>
       </c>
@@ -16563,11 +15962,8 @@
       <c r="J362" t="s">
         <v>1618</v>
       </c>
-      <c r="K362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11">
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>731</v>
       </c>
@@ -16592,11 +15988,8 @@
       <c r="J363" t="s">
         <v>1619</v>
       </c>
-      <c r="K363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11">
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>732</v>
       </c>
@@ -16621,11 +16014,8 @@
       <c r="J364" t="s">
         <v>1620</v>
       </c>
-      <c r="K364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11">
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>733</v>
       </c>
@@ -16654,7 +16044,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>734</v>
       </c>
@@ -16683,7 +16073,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>735</v>
       </c>
@@ -16708,11 +16098,8 @@
       <c r="J367" t="s">
         <v>1623</v>
       </c>
-      <c r="K367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:11">
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>736</v>
       </c>
@@ -16741,7 +16128,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>737</v>
       </c>
@@ -16766,11 +16153,8 @@
       <c r="J369" t="s">
         <v>1625</v>
       </c>
-      <c r="K369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11">
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>738</v>
       </c>
@@ -16795,11 +16179,8 @@
       <c r="J370" t="s">
         <v>1626</v>
       </c>
-      <c r="K370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:11">
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>739</v>
       </c>
@@ -16824,11 +16205,8 @@
       <c r="J371" t="s">
         <v>1627</v>
       </c>
-      <c r="K371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:11">
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>740</v>
       </c>
@@ -16853,11 +16231,8 @@
       <c r="J372" t="s">
         <v>1628</v>
       </c>
-      <c r="K372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:11">
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>741</v>
       </c>
@@ -16882,11 +16257,8 @@
       <c r="J373" t="s">
         <v>1629</v>
       </c>
-      <c r="K373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:11">
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>742</v>
       </c>
@@ -16911,11 +16283,8 @@
       <c r="J374" t="s">
         <v>1630</v>
       </c>
-      <c r="K374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:11">
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>743</v>
       </c>
@@ -16940,11 +16309,8 @@
       <c r="J375" t="s">
         <v>1631</v>
       </c>
-      <c r="K375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11">
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>744</v>
       </c>
@@ -16969,11 +16335,8 @@
       <c r="J376" t="s">
         <v>1632</v>
       </c>
-      <c r="K376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11">
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>745</v>
       </c>
@@ -17005,7 +16368,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>746</v>
       </c>
@@ -17037,7 +16400,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>747</v>
       </c>
@@ -17065,11 +16428,8 @@
       <c r="J379" t="s">
         <v>1635</v>
       </c>
-      <c r="K379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11">
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>749</v>
       </c>
@@ -17097,11 +16457,8 @@
       <c r="J380" t="s">
         <v>1636</v>
       </c>
-      <c r="K380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:11">
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>750</v>
       </c>
@@ -17133,7 +16490,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>751</v>
       </c>
@@ -17165,7 +16522,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>752</v>
       </c>
@@ -17197,7 +16554,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>753</v>
       </c>
@@ -17225,11 +16582,8 @@
       <c r="J384" t="s">
         <v>1640</v>
       </c>
-      <c r="K384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:11">
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>754</v>
       </c>
@@ -17257,11 +16611,8 @@
       <c r="J385" t="s">
         <v>1641</v>
       </c>
-      <c r="K385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:11">
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>755</v>
       </c>
@@ -17293,7 +16644,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>756</v>
       </c>
@@ -17321,11 +16672,8 @@
       <c r="J387" t="s">
         <v>1643</v>
       </c>
-      <c r="K387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11">
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>757</v>
       </c>
@@ -17353,11 +16701,8 @@
       <c r="J388" t="s">
         <v>1644</v>
       </c>
-      <c r="K388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:11">
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>758</v>
       </c>
@@ -17385,11 +16730,8 @@
       <c r="J389" t="s">
         <v>1645</v>
       </c>
-      <c r="K389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:11">
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>759</v>
       </c>
@@ -17424,7 +16766,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>760</v>
       </c>
@@ -17452,11 +16794,8 @@
       <c r="J391" t="s">
         <v>1647</v>
       </c>
-      <c r="K391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:11">
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>761</v>
       </c>
@@ -17488,7 +16827,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>762</v>
       </c>
@@ -17520,7 +16859,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>763</v>
       </c>
@@ -17542,11 +16881,8 @@
       <c r="J394" t="s">
         <v>1650</v>
       </c>
-      <c r="K394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11">
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>764</v>
       </c>
@@ -17578,7 +16914,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>765</v>
       </c>
@@ -17610,7 +16946,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>766</v>
       </c>
@@ -17629,14 +16965,8 @@
       <c r="G397" t="s">
         <v>1261</v>
       </c>
-      <c r="J397">
-        <v>0</v>
-      </c>
-      <c r="K397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:11">
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>767</v>
       </c>
@@ -17668,7 +16998,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>768</v>
       </c>
@@ -17693,11 +17023,8 @@
       <c r="J399" t="s">
         <v>1654</v>
       </c>
-      <c r="K399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:11">
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>769</v>
       </c>
@@ -17725,11 +17052,8 @@
       <c r="J400" t="s">
         <v>1299</v>
       </c>
-      <c r="K400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:11">
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>770</v>
       </c>
@@ -17761,7 +17085,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>771</v>
       </c>
@@ -17789,11 +17113,8 @@
       <c r="J402" t="s">
         <v>1301</v>
       </c>
-      <c r="K402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:11">
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>772</v>
       </c>
@@ -17821,11 +17142,8 @@
       <c r="J403" t="s">
         <v>1655</v>
       </c>
-      <c r="K403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:11">
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>773</v>
       </c>
@@ -17857,7 +17175,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>774</v>
       </c>
@@ -17885,11 +17203,8 @@
       <c r="J405" t="s">
         <v>1656</v>
       </c>
-      <c r="K405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11">
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>775</v>
       </c>
@@ -17917,11 +17232,8 @@
       <c r="J406" t="s">
         <v>1657</v>
       </c>
-      <c r="K406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:11">
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>776</v>
       </c>
@@ -17949,11 +17261,8 @@
       <c r="J407" t="s">
         <v>1658</v>
       </c>
-      <c r="K407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:11">
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>777</v>
       </c>
@@ -17985,7 +17294,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>778</v>
       </c>
@@ -18013,11 +17322,8 @@
       <c r="J409" t="s">
         <v>1660</v>
       </c>
-      <c r="K409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:11">
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>779</v>
       </c>
@@ -18049,7 +17355,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>780</v>
       </c>
@@ -18081,7 +17387,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>781</v>
       </c>
@@ -18113,7 +17419,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>782</v>
       </c>
@@ -18141,11 +17447,8 @@
       <c r="J413" t="s">
         <v>1664</v>
       </c>
-      <c r="K413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11">
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>783</v>
       </c>
@@ -18177,7 +17480,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>745</v>
       </c>
@@ -18206,7 +17509,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>746</v>
       </c>
@@ -18235,7 +17538,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>747</v>
       </c>
@@ -18260,11 +17563,8 @@
       <c r="H417" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="K417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:11">
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>749</v>
       </c>
@@ -18289,11 +17589,8 @@
       <c r="H418" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="K418">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11">
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>750</v>
       </c>
@@ -18322,7 +17619,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>751</v>
       </c>
@@ -18351,7 +17648,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>752</v>
       </c>
@@ -18380,7 +17677,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>753</v>
       </c>
@@ -18405,11 +17702,8 @@
       <c r="H422" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="K422">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:11">
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>754</v>
       </c>
@@ -18434,11 +17728,8 @@
       <c r="H423" s="2" t="s">
         <v>1286</v>
       </c>
-      <c r="K423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:11">
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>755</v>
       </c>
@@ -18467,7 +17758,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>756</v>
       </c>
@@ -18492,11 +17783,8 @@
       <c r="H425" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="K425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:11">
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>757</v>
       </c>
@@ -18521,11 +17809,8 @@
       <c r="H426" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="K426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:11">
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>758</v>
       </c>
@@ -18550,11 +17835,8 @@
       <c r="H427" s="2" t="s">
         <v>1290</v>
       </c>
-      <c r="K427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:11">
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>759</v>
       </c>
@@ -18586,7 +17868,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>760</v>
       </c>
@@ -18611,11 +17893,8 @@
       <c r="H429" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="K429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:11">
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>761</v>
       </c>
@@ -18644,7 +17923,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>762</v>
       </c>
@@ -18673,7 +17952,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>763</v>
       </c>
@@ -18692,11 +17971,8 @@
       <c r="H432" s="2" t="s">
         <v>1295</v>
       </c>
-      <c r="K432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:11">
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>764</v>
       </c>
@@ -18725,7 +18001,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>765</v>
       </c>
@@ -18754,7 +18030,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>767</v>
       </c>
@@ -18779,11 +18055,8 @@
       <c r="H435" t="s">
         <v>1298</v>
       </c>
-      <c r="K435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:11">
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>769</v>
       </c>
@@ -18808,11 +18081,8 @@
       <c r="H436" t="s">
         <v>1299</v>
       </c>
-      <c r="K436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:11">
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>770</v>
       </c>
@@ -18841,7 +18111,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>771</v>
       </c>
@@ -18866,11 +18136,8 @@
       <c r="H438" t="s">
         <v>1301</v>
       </c>
-      <c r="K438">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:11">
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>772</v>
       </c>
@@ -18895,11 +18162,8 @@
       <c r="H439" t="s">
         <v>1302</v>
       </c>
-      <c r="K439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:11">
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>773</v>
       </c>
@@ -18928,7 +18192,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>774</v>
       </c>
@@ -18953,11 +18217,8 @@
       <c r="H441" t="s">
         <v>1304</v>
       </c>
-      <c r="K441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:11">
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>775</v>
       </c>
@@ -18982,11 +18243,8 @@
       <c r="H442" t="s">
         <v>1305</v>
       </c>
-      <c r="K442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:11">
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>776</v>
       </c>
@@ -19011,11 +18269,8 @@
       <c r="H443" t="s">
         <v>1306</v>
       </c>
-      <c r="K443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:11">
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>777</v>
       </c>
@@ -19044,7 +18299,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>778</v>
       </c>
@@ -19073,7 +18328,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>779</v>
       </c>
@@ -19102,7 +18357,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>780</v>
       </c>
@@ -19131,7 +18386,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>781</v>
       </c>
@@ -19160,7 +18415,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>782</v>
       </c>
@@ -19189,7 +18444,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>783</v>
       </c>
@@ -19220,301 +18475,301 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K5" r:id="rId2"/>
-    <hyperlink ref="K19" r:id="rId3"/>
-    <hyperlink ref="K24" r:id="rId4"/>
-    <hyperlink ref="K25" r:id="rId5"/>
-    <hyperlink ref="K26" r:id="rId6"/>
-    <hyperlink ref="K27" r:id="rId7"/>
-    <hyperlink ref="K28" r:id="rId8"/>
-    <hyperlink ref="K29" r:id="rId9"/>
-    <hyperlink ref="K30" r:id="rId10"/>
-    <hyperlink ref="K31" r:id="rId11"/>
-    <hyperlink ref="K32" r:id="rId12"/>
-    <hyperlink ref="K33" r:id="rId13"/>
-    <hyperlink ref="K34" r:id="rId14"/>
-    <hyperlink ref="K35" r:id="rId15"/>
-    <hyperlink ref="K36" r:id="rId16"/>
-    <hyperlink ref="K38" r:id="rId17"/>
-    <hyperlink ref="K39" r:id="rId18"/>
-    <hyperlink ref="K42" r:id="rId19"/>
-    <hyperlink ref="K43" r:id="rId20"/>
-    <hyperlink ref="K44" r:id="rId21"/>
-    <hyperlink ref="K45" r:id="rId22"/>
-    <hyperlink ref="K46" r:id="rId23"/>
-    <hyperlink ref="K47" r:id="rId24"/>
-    <hyperlink ref="K48" r:id="rId25"/>
-    <hyperlink ref="K50" r:id="rId26"/>
-    <hyperlink ref="K54" r:id="rId27"/>
-    <hyperlink ref="K56" r:id="rId28"/>
-    <hyperlink ref="K57" r:id="rId29"/>
-    <hyperlink ref="K61" r:id="rId30"/>
-    <hyperlink ref="K62" r:id="rId31"/>
-    <hyperlink ref="K63" r:id="rId32"/>
-    <hyperlink ref="K64" r:id="rId33"/>
-    <hyperlink ref="K65" r:id="rId34"/>
-    <hyperlink ref="K66" r:id="rId35"/>
-    <hyperlink ref="K67" r:id="rId36"/>
-    <hyperlink ref="K68" r:id="rId37"/>
-    <hyperlink ref="K70" r:id="rId38"/>
-    <hyperlink ref="K71" r:id="rId39"/>
-    <hyperlink ref="K73" r:id="rId40"/>
-    <hyperlink ref="K75" r:id="rId41"/>
-    <hyperlink ref="K78" r:id="rId42"/>
-    <hyperlink ref="K80" r:id="rId43"/>
-    <hyperlink ref="K82" r:id="rId44"/>
-    <hyperlink ref="K83" r:id="rId45"/>
-    <hyperlink ref="K84" r:id="rId46"/>
-    <hyperlink ref="K89" r:id="rId47"/>
-    <hyperlink ref="K90" r:id="rId48"/>
-    <hyperlink ref="K91" r:id="rId49"/>
-    <hyperlink ref="K92" r:id="rId50"/>
-    <hyperlink ref="K93" r:id="rId51"/>
-    <hyperlink ref="K94" r:id="rId52"/>
-    <hyperlink ref="K95" r:id="rId53"/>
-    <hyperlink ref="K96" r:id="rId54"/>
-    <hyperlink ref="K97" r:id="rId55"/>
-    <hyperlink ref="K98" r:id="rId56"/>
-    <hyperlink ref="K99" r:id="rId57"/>
-    <hyperlink ref="K100" r:id="rId58"/>
-    <hyperlink ref="K102" r:id="rId59"/>
-    <hyperlink ref="K103" r:id="rId60"/>
-    <hyperlink ref="K104" r:id="rId61"/>
-    <hyperlink ref="K105" r:id="rId62"/>
-    <hyperlink ref="K107" r:id="rId63"/>
-    <hyperlink ref="K108" r:id="rId64"/>
-    <hyperlink ref="K109" r:id="rId65"/>
-    <hyperlink ref="K110" r:id="rId66"/>
-    <hyperlink ref="K111" r:id="rId67"/>
-    <hyperlink ref="K112" r:id="rId68"/>
-    <hyperlink ref="K113" r:id="rId69"/>
-    <hyperlink ref="K115" r:id="rId70"/>
-    <hyperlink ref="K116" r:id="rId71"/>
-    <hyperlink ref="K119" r:id="rId72"/>
-    <hyperlink ref="K120" r:id="rId73"/>
-    <hyperlink ref="K121" r:id="rId74"/>
-    <hyperlink ref="K122" r:id="rId75"/>
-    <hyperlink ref="K123" r:id="rId76"/>
-    <hyperlink ref="K127" r:id="rId77"/>
-    <hyperlink ref="K129" r:id="rId78"/>
-    <hyperlink ref="K131" r:id="rId79"/>
-    <hyperlink ref="K132" r:id="rId80"/>
-    <hyperlink ref="K134" r:id="rId81"/>
-    <hyperlink ref="K135" r:id="rId82"/>
-    <hyperlink ref="K136" r:id="rId83"/>
-    <hyperlink ref="K139" r:id="rId84"/>
-    <hyperlink ref="K141" r:id="rId85"/>
-    <hyperlink ref="K142" r:id="rId86"/>
-    <hyperlink ref="K143" r:id="rId87"/>
-    <hyperlink ref="K144" r:id="rId88"/>
-    <hyperlink ref="K145" r:id="rId89"/>
-    <hyperlink ref="K146" r:id="rId90"/>
-    <hyperlink ref="K147" r:id="rId91"/>
-    <hyperlink ref="K150" r:id="rId92"/>
-    <hyperlink ref="K151" r:id="rId93"/>
-    <hyperlink ref="K152" r:id="rId94"/>
-    <hyperlink ref="K155" r:id="rId95"/>
-    <hyperlink ref="K156" r:id="rId96"/>
-    <hyperlink ref="K157" r:id="rId97"/>
-    <hyperlink ref="K158" r:id="rId98"/>
-    <hyperlink ref="K159" r:id="rId99"/>
-    <hyperlink ref="K161" r:id="rId100"/>
-    <hyperlink ref="K162" r:id="rId101"/>
-    <hyperlink ref="K165" r:id="rId102"/>
-    <hyperlink ref="K169" r:id="rId103"/>
-    <hyperlink ref="K170" r:id="rId104"/>
-    <hyperlink ref="K173" r:id="rId105"/>
-    <hyperlink ref="K174" r:id="rId106"/>
-    <hyperlink ref="K175" r:id="rId107"/>
-    <hyperlink ref="K176" r:id="rId108"/>
-    <hyperlink ref="K178" r:id="rId109"/>
-    <hyperlink ref="K180" r:id="rId110"/>
-    <hyperlink ref="K181" r:id="rId111"/>
-    <hyperlink ref="K182" r:id="rId112"/>
-    <hyperlink ref="K183" r:id="rId113"/>
-    <hyperlink ref="K185" r:id="rId114"/>
-    <hyperlink ref="K187" r:id="rId115"/>
-    <hyperlink ref="K190" r:id="rId116"/>
-    <hyperlink ref="K191" r:id="rId117"/>
-    <hyperlink ref="K193" r:id="rId118"/>
-    <hyperlink ref="K194" r:id="rId119"/>
-    <hyperlink ref="K195" r:id="rId120"/>
-    <hyperlink ref="K196" r:id="rId121"/>
-    <hyperlink ref="K197" r:id="rId122"/>
-    <hyperlink ref="K198" r:id="rId123"/>
-    <hyperlink ref="K199" r:id="rId124"/>
-    <hyperlink ref="K201" r:id="rId125"/>
-    <hyperlink ref="K202" r:id="rId126"/>
-    <hyperlink ref="K203" r:id="rId127"/>
-    <hyperlink ref="K204" r:id="rId128"/>
-    <hyperlink ref="K205" r:id="rId129"/>
-    <hyperlink ref="K207" r:id="rId130"/>
-    <hyperlink ref="K209" r:id="rId131"/>
-    <hyperlink ref="K210" r:id="rId132"/>
-    <hyperlink ref="K212" r:id="rId133"/>
-    <hyperlink ref="K215" r:id="rId134"/>
-    <hyperlink ref="K217" r:id="rId135"/>
-    <hyperlink ref="K218" r:id="rId136"/>
-    <hyperlink ref="K219" r:id="rId137"/>
-    <hyperlink ref="K220" r:id="rId138"/>
-    <hyperlink ref="K221" r:id="rId139"/>
-    <hyperlink ref="K222" r:id="rId140"/>
-    <hyperlink ref="K223" r:id="rId141"/>
-    <hyperlink ref="K224" r:id="rId142"/>
-    <hyperlink ref="K225" r:id="rId143"/>
-    <hyperlink ref="K227" r:id="rId144"/>
-    <hyperlink ref="K228" r:id="rId145"/>
-    <hyperlink ref="K229" r:id="rId146"/>
-    <hyperlink ref="K230" r:id="rId147"/>
-    <hyperlink ref="K231" r:id="rId148"/>
-    <hyperlink ref="K234" r:id="rId149"/>
-    <hyperlink ref="K235" r:id="rId150"/>
-    <hyperlink ref="K237" r:id="rId151"/>
-    <hyperlink ref="K239" r:id="rId152"/>
-    <hyperlink ref="K240" r:id="rId153"/>
-    <hyperlink ref="K241" r:id="rId154"/>
-    <hyperlink ref="K242" r:id="rId155"/>
-    <hyperlink ref="K243" r:id="rId156"/>
-    <hyperlink ref="K245" r:id="rId157"/>
-    <hyperlink ref="K247" r:id="rId158"/>
-    <hyperlink ref="K248" r:id="rId159"/>
-    <hyperlink ref="K249" r:id="rId160"/>
-    <hyperlink ref="K253" r:id="rId161"/>
-    <hyperlink ref="K254" r:id="rId162"/>
-    <hyperlink ref="K255" r:id="rId163"/>
-    <hyperlink ref="K256" r:id="rId164"/>
-    <hyperlink ref="K258" r:id="rId165"/>
-    <hyperlink ref="K259" r:id="rId166"/>
-    <hyperlink ref="K260" r:id="rId167"/>
-    <hyperlink ref="K262" r:id="rId168"/>
-    <hyperlink ref="K265" r:id="rId169"/>
-    <hyperlink ref="K266" r:id="rId170"/>
-    <hyperlink ref="K268" r:id="rId171"/>
-    <hyperlink ref="K269" r:id="rId172"/>
-    <hyperlink ref="K270" r:id="rId173"/>
-    <hyperlink ref="K271" r:id="rId174"/>
-    <hyperlink ref="K272" r:id="rId175"/>
-    <hyperlink ref="K273" r:id="rId176"/>
-    <hyperlink ref="K275" r:id="rId177"/>
-    <hyperlink ref="K276" r:id="rId178"/>
-    <hyperlink ref="K278" r:id="rId179"/>
-    <hyperlink ref="K279" r:id="rId180"/>
-    <hyperlink ref="K282" r:id="rId181"/>
-    <hyperlink ref="K284" r:id="rId182"/>
-    <hyperlink ref="K287" r:id="rId183"/>
-    <hyperlink ref="K289" r:id="rId184"/>
-    <hyperlink ref="K293" r:id="rId185"/>
-    <hyperlink ref="K296" r:id="rId186"/>
-    <hyperlink ref="K302" r:id="rId187"/>
-    <hyperlink ref="K309" r:id="rId188"/>
-    <hyperlink ref="K312" r:id="rId189"/>
-    <hyperlink ref="K314" r:id="rId190"/>
-    <hyperlink ref="K317" r:id="rId191"/>
-    <hyperlink ref="K324" r:id="rId192"/>
-    <hyperlink ref="K325" r:id="rId193"/>
-    <hyperlink ref="K339" r:id="rId194"/>
-    <hyperlink ref="K342" r:id="rId195"/>
-    <hyperlink ref="K350" r:id="rId196"/>
-    <hyperlink ref="K351" r:id="rId197"/>
-    <hyperlink ref="K359" r:id="rId198"/>
-    <hyperlink ref="K361" r:id="rId199"/>
-    <hyperlink ref="K365" r:id="rId200"/>
-    <hyperlink ref="K366" r:id="rId201"/>
-    <hyperlink ref="K368" r:id="rId202"/>
-    <hyperlink ref="H377" r:id="rId203"/>
-    <hyperlink ref="K377" r:id="rId204"/>
-    <hyperlink ref="H378" r:id="rId205"/>
-    <hyperlink ref="K378" r:id="rId206"/>
-    <hyperlink ref="H379" r:id="rId207"/>
-    <hyperlink ref="H380" r:id="rId208"/>
-    <hyperlink ref="H381" r:id="rId209"/>
-    <hyperlink ref="K381" r:id="rId210"/>
-    <hyperlink ref="H382" r:id="rId211"/>
-    <hyperlink ref="K382" r:id="rId212"/>
-    <hyperlink ref="H383" r:id="rId213"/>
-    <hyperlink ref="K383" r:id="rId214"/>
-    <hyperlink ref="H384" r:id="rId215"/>
-    <hyperlink ref="H385" r:id="rId216"/>
-    <hyperlink ref="H386" r:id="rId217"/>
-    <hyperlink ref="K386" r:id="rId218"/>
-    <hyperlink ref="H387" r:id="rId219"/>
-    <hyperlink ref="H388" r:id="rId220"/>
-    <hyperlink ref="H389" r:id="rId221"/>
-    <hyperlink ref="H390" r:id="rId222"/>
-    <hyperlink ref="K390" r:id="rId223"/>
-    <hyperlink ref="H391" r:id="rId224"/>
-    <hyperlink ref="H392" r:id="rId225"/>
-    <hyperlink ref="K392" r:id="rId226"/>
-    <hyperlink ref="H393" r:id="rId227"/>
-    <hyperlink ref="K393" r:id="rId228"/>
-    <hyperlink ref="H394" r:id="rId229"/>
-    <hyperlink ref="H395" r:id="rId230"/>
-    <hyperlink ref="K395" r:id="rId231"/>
-    <hyperlink ref="H396" r:id="rId232"/>
-    <hyperlink ref="K396" r:id="rId233"/>
-    <hyperlink ref="K398" r:id="rId234"/>
-    <hyperlink ref="K401" r:id="rId235"/>
-    <hyperlink ref="K404" r:id="rId236"/>
-    <hyperlink ref="H408" r:id="rId237"/>
-    <hyperlink ref="K408" r:id="rId238"/>
-    <hyperlink ref="H409" r:id="rId239"/>
-    <hyperlink ref="H410" r:id="rId240"/>
-    <hyperlink ref="K410" r:id="rId241"/>
-    <hyperlink ref="H411" r:id="rId242"/>
-    <hyperlink ref="K411" r:id="rId243"/>
-    <hyperlink ref="H412" r:id="rId244"/>
-    <hyperlink ref="K412" r:id="rId245"/>
-    <hyperlink ref="H413" r:id="rId246"/>
-    <hyperlink ref="H414" r:id="rId247"/>
-    <hyperlink ref="K414" r:id="rId248"/>
-    <hyperlink ref="H415" r:id="rId249"/>
-    <hyperlink ref="K415" r:id="rId250"/>
-    <hyperlink ref="H416" r:id="rId251"/>
-    <hyperlink ref="K416" r:id="rId252"/>
-    <hyperlink ref="H417" r:id="rId253"/>
-    <hyperlink ref="H418" r:id="rId254"/>
-    <hyperlink ref="H419" r:id="rId255"/>
-    <hyperlink ref="K419" r:id="rId256"/>
-    <hyperlink ref="H420" r:id="rId257"/>
-    <hyperlink ref="K420" r:id="rId258"/>
-    <hyperlink ref="H421" r:id="rId259"/>
-    <hyperlink ref="K421" r:id="rId260"/>
-    <hyperlink ref="H422" r:id="rId261"/>
-    <hyperlink ref="H423" r:id="rId262"/>
-    <hyperlink ref="H424" r:id="rId263"/>
-    <hyperlink ref="K424" r:id="rId264"/>
-    <hyperlink ref="H425" r:id="rId265"/>
-    <hyperlink ref="H426" r:id="rId266"/>
-    <hyperlink ref="H427" r:id="rId267"/>
-    <hyperlink ref="H428" r:id="rId268"/>
-    <hyperlink ref="K428" r:id="rId269"/>
-    <hyperlink ref="H429" r:id="rId270"/>
-    <hyperlink ref="H430" r:id="rId271"/>
-    <hyperlink ref="K430" r:id="rId272"/>
-    <hyperlink ref="H431" r:id="rId273"/>
-    <hyperlink ref="K431" r:id="rId274"/>
-    <hyperlink ref="H432" r:id="rId275"/>
-    <hyperlink ref="H433" r:id="rId276"/>
-    <hyperlink ref="K433" r:id="rId277"/>
-    <hyperlink ref="H434" r:id="rId278"/>
-    <hyperlink ref="K434" r:id="rId279"/>
-    <hyperlink ref="K437" r:id="rId280"/>
-    <hyperlink ref="K440" r:id="rId281"/>
-    <hyperlink ref="H444" r:id="rId282"/>
-    <hyperlink ref="K444" r:id="rId283"/>
-    <hyperlink ref="H445" r:id="rId284"/>
-    <hyperlink ref="K445" r:id="rId285"/>
-    <hyperlink ref="H446" r:id="rId286"/>
-    <hyperlink ref="K446" r:id="rId287"/>
-    <hyperlink ref="H447" r:id="rId288"/>
-    <hyperlink ref="K447" r:id="rId289"/>
-    <hyperlink ref="H448" r:id="rId290"/>
-    <hyperlink ref="K448" r:id="rId291"/>
-    <hyperlink ref="H449" r:id="rId292"/>
-    <hyperlink ref="K449" r:id="rId293"/>
-    <hyperlink ref="H450" r:id="rId294"/>
-    <hyperlink ref="K450" r:id="rId295"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K25" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K29" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K30" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K31" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K32" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K33" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K34" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K35" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K36" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K38" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K39" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K42" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K43" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K44" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K45" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K46" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K47" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K48" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K54" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K56" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K57" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K61" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K62" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K63" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K64" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K65" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K66" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K67" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K68" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K70" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K71" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K73" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K75" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K78" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K80" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K82" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K83" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K84" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K89" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K90" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K91" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K92" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K93" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K94" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K95" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="K96" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K97" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K98" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K99" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K100" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K102" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K103" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K104" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K105" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K107" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="K108" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K109" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K110" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K111" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K112" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K113" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K115" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K116" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="K119" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K120" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="K121" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K122" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="K123" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="K127" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="K129" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="K131" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="K132" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="K134" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="K135" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="K136" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="K139" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="K141" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="K142" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="K143" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="K144" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="K145" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="K146" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="K147" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="K150" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="K151" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="K152" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="K155" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="K156" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="K157" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="K158" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="K159" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="K161" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="K162" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="K165" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="K169" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="K170" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="K173" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="K174" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="K175" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="K176" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="K178" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="K180" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="K181" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="K182" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="K183" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="K185" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="K187" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="K190" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="K191" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="K193" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="K194" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="K195" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="K196" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="K197" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="K198" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="K199" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="K201" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="K202" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="K203" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="K204" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="K205" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="K207" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="K209" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="K210" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="K212" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="K215" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="K217" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="K218" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="K219" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="K220" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="K221" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="K222" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="K223" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="K224" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="K225" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="K227" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="K228" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="K229" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="K230" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="K231" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="K234" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="K235" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="K237" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="K239" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="K240" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="K241" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="K242" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="K243" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="K245" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="K247" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="K248" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="K249" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="K253" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="K254" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="K255" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="K256" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="K258" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="K259" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="K260" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="K262" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="K265" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="K266" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="K268" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="K269" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="K270" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="K271" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="K272" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="K273" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="K275" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="K276" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="K278" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="K279" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="K282" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="K284" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="K287" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="K289" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="K293" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="K296" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="K302" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="K309" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="K312" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="K314" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="K317" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="K324" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="K325" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="K339" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="K342" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="K350" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="K351" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="K359" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="K361" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="K365" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="K366" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="K368" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="H377" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="K377" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="H378" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="K378" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="H379" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="H380" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="H381" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="K381" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="H382" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="K382" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="H383" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="K383" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="H384" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="H385" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="H386" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="K386" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="H387" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="H388" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="H389" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="H390" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="K390" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="H391" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="H392" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="K392" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="H393" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="K393" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="H394" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="H395" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="K395" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="H396" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="K396" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="K398" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="K401" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="K404" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="H408" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="K408" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="H409" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="H410" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="K410" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="H411" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="K411" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="H412" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="K412" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="H413" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="H414" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="K414" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="H415" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="K415" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="H416" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="K416" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="H417" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="H418" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="H419" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="K419" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="H420" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="K420" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="H421" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="K421" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="H422" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="H423" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="H424" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="K424" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="H425" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="H426" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="H427" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="H428" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="K428" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="H429" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="H430" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="K430" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="H431" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="K431" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="H432" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="H433" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="K433" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="H434" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="K434" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="K437" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="K440" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="H444" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="K444" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="H445" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="K445" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="H446" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="K446" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="H447" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="K447" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="H448" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="K448" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="H449" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="K449" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="H450" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="K450" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
